--- a/hw5_data.xlsx
+++ b/hw5_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25560" windowHeight="28800" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Table" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Afghanistan" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="336">
   <si>
     <t>k_values</t>
   </si>
@@ -449,13 +452,604 @@
   </si>
   <si>
     <t>distances from average</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia (Plurinational State of)</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Democratic People's Republic of Korea</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia (Federated States of)</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Republic of Korea</t>
+  </si>
+  <si>
+    <t>Republic of Moldova</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>The former Yugoslav Republic of Macedonia</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom of Great Britain and Northern Ireland</t>
+  </si>
+  <si>
+    <t>United Republic of Tanzania</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Palestine (State of)</t>
+  </si>
+  <si>
+    <t>Afghanistan Diff</t>
+  </si>
+  <si>
+    <t>Cluster 3 Diff</t>
+  </si>
+  <si>
+    <t>Avg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -469,13 +1063,72 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -487,14 +1140,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,6 +1198,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cost</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. # Clusters</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1992,6 +2697,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0266405427104587"/>
+                  <c:y val="-0.228012231045799"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet4!$A$2:$A$31</c:f>
@@ -2385,6 +3140,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Cost vs. # Clusters</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2566,91 +3350,91 @@
                   <c:v>0.00417395147647</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0032349550263425</c:v>
+                  <c:v>0.00322215497566</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0028733190871125</c:v>
+                  <c:v>0.00285137103286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0026788110369</c:v>
+                  <c:v>0.00257407994603</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.002473085941415</c:v>
+                  <c:v>0.00244361591071</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00236993923195</c:v>
+                  <c:v>0.00234185441067</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.002300561400135</c:v>
+                  <c:v>0.00224533196098</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0022008981557175</c:v>
+                  <c:v>0.00213349341995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.002137169606735</c:v>
+                  <c:v>0.00209275132701</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0020408065523575</c:v>
+                  <c:v>0.00201467098493</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0019934255543625</c:v>
+                  <c:v>0.00192765191678</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0019229662490725</c:v>
+                  <c:v>0.00188105977861</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0018980685733975</c:v>
+                  <c:v>0.00187663165253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0018370182299725</c:v>
+                  <c:v>0.00179912813043</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.001767569128535</c:v>
+                  <c:v>0.00169248658608</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0017786285180725</c:v>
+                  <c:v>0.00172638217851</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.001735934966105</c:v>
+                  <c:v>0.00167969991069</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0016736609397775</c:v>
+                  <c:v>0.00166033489031</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.001643671151005</c:v>
+                  <c:v>0.00160920905771</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00166722543527</c:v>
+                  <c:v>0.0016245404928</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.001598754016905</c:v>
+                  <c:v>0.00157669338068</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.001575692475445</c:v>
+                  <c:v>0.00154504805731</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.001580788272855</c:v>
+                  <c:v>0.00155629476953</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.001483974228215</c:v>
+                  <c:v>0.0014639759732</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.00149861747995</c:v>
+                  <c:v>0.00142700013434</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0014409436017325</c:v>
+                  <c:v>0.0013706330678</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0014824441325675</c:v>
+                  <c:v>0.00142089384695</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0014036904382675</c:v>
+                  <c:v>0.00133453508865</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.001394809914595</c:v>
+                  <c:v>0.00136478152183</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.001376775348055</c:v>
+                  <c:v>0.00131852729925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5314,6 +6098,1359 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="-88214784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Distance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> from Average Caring of all Countries</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Action taken on climate change</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Better transport and roads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Support for people who can't work</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Access to clean water and sanitation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Better healthcare</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A good education</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>A responsive government we can trust</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Phone and internet access</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Reliable energy at home</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Affordable and nutritious food</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Protecting forests rivers and oceans</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Protection against crime and violence</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Political freedoms</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Freedom from discrimination and persecution</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Equality between men and women</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Better job opportunities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$J$2:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-0.01567987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01204823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01196247</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.00992634999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01717138</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01183381</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.00883853</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00330642</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.000746050000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.00321282</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.0192226</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.00462913000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.00799173999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.00982157999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.00695930999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.03070567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Action taken on climate change</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Better transport and roads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Support for people who can't work</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Access to clean water and sanitation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Better healthcare</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A good education</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>A responsive government we can trust</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Phone and internet access</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Reliable energy at home</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Affordable and nutritious food</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Protecting forests rivers and oceans</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Protection against crime and violence</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Political freedoms</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Freedom from discrimination and persecution</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Equality between men and women</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Better job opportunities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$K$2:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-0.00558238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01014003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00911490999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000302980000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.00277862000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.00575930999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.00469314</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00996399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00729039999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.00429114</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.01120007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.00327684</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00468337</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.00298483</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.000293269999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.000636109999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Action taken on climate change</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Better transport and roads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Support for people who can't work</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Access to clean water and sanitation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Better healthcare</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A good education</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>A responsive government we can trust</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Phone and internet access</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Reliable energy at home</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Affordable and nutritious food</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Protecting forests rivers and oceans</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Protection against crime and violence</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Political freedoms</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Freedom from discrimination and persecution</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Equality between men and women</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Better job opportunities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$L$2:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.02786489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.02212667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.01714448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02120046</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.02548</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.00759588</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00139650000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.01052545</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.004495</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.01150221</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.02285851</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.00882953</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.01303826</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.01882236</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.01699148</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.03747766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Action taken on climate change</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Better transport and roads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Support for people who can't work</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Access to clean water and sanitation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Better healthcare</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A good education</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>A responsive government we can trust</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Phone and internet access</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Reliable energy at home</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Affordable and nutritious food</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Protecting forests rivers and oceans</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Protection against crime and violence</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Political freedoms</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Freedom from discrimination and persecution</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Equality between men and women</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Better job opportunities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$M$2:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-0.00646728</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.00286562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.0072691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.00680763999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00863409999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.00765702999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02286045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.00719534</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.0056959</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00024805</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.01542979</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.02535678</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.00288696</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.00635329</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.01490023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.01713737</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Action taken on climate change</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Better transport and roads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Support for people who can't work</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Access to clean water and sanitation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Better healthcare</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A good education</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>A responsive government we can trust</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Phone and internet access</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Reliable energy at home</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Affordable and nutritious food</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Protecting forests rivers and oceans</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Protection against crime and violence</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Political freedoms</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Freedom from discrimination and persecution</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Equality between men and women</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Better job opportunities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$N$2:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.01047894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.01137094</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.01033092</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01060146</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.00141748</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00783177</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00238185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.01091745</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.00485374</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00930572</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.01212929</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.00589671999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.01274422</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.00425213</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.00302903</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.00576791</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Action taken on climate change</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Better transport and roads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Support for people who can't work</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Access to clean water and sanitation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Better healthcare</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A good education</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>A responsive government we can trust</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Phone and internet access</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Reliable energy at home</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Affordable and nutritious food</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Protecting forests rivers and oceans</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Protection against crime and violence</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Political freedoms</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Freedom from discrimination and persecution</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Equality between men and women</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Better job opportunities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$O$2:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.00195043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.00429033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.0051042</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.01019588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.00130709</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.00443381</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00614674000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.000125609999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.0010783</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.00587338</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.00854833</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.00115245999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00682641</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.00586147</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.000520310000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.00115123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Action taken on climate change</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Better transport and roads</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Support for people who can't work</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Access to clean water and sanitation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Better healthcare</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A good education</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>A responsive government we can trust</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Phone and internet access</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Reliable energy at home</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Affordable and nutritious food</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Protecting forests rivers and oceans</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Protection against crime and violence</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Political freedoms</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Freedom from discrimination and persecution</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Equality between men and women</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Better job opportunities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$P$2:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="16907376"/>
+        <c:axId val="-454940416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="16907376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-454940416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-454940416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16907376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5674,6 +7811,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8771,6 +10948,509 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9452,16 +12132,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>43343</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>8389</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>151467</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>34954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>449743</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>71889</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>18642</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>118493</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9482,16 +12162,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>621018</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>73169</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1762852</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>154728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>582569</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>198072</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>745688</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>81558</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9505,6 +12185,43 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11207,7 +13924,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A31 F1:F31"/>
+      <selection activeCell="F2" sqref="F2:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11249,7 +13966,7 @@
         <v>4.1739514764700001E-3</v>
       </c>
       <c r="F2">
-        <f>AVERAGE(B2:E2)</f>
+        <f>MIN(B2:E2)</f>
         <v>4.1739514764700001E-3</v>
       </c>
     </row>
@@ -11270,8 +13987,8 @@
         <v>3.2221549756599999E-3</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F31" si="0">AVERAGE(B3:E3)</f>
-        <v>3.2349550263425001E-3</v>
+        <f t="shared" ref="F3:F31" si="0">MIN(B3:E3)</f>
+        <v>3.2221549756599999E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -11292,7 +14009,7 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>2.8733190871125E-3</v>
+        <v>2.85137103286E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -11313,7 +14030,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>2.6788110369000001E-3</v>
+        <v>2.5740799460299999E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -11334,7 +14051,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>2.4730859414149996E-3</v>
+        <v>2.4436159107100001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -11355,7 +14072,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>2.3699392319500002E-3</v>
+        <v>2.3418544106700002E-3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -11376,7 +14093,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>2.3005614001350002E-3</v>
+        <v>2.2453319609800002E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -11397,7 +14114,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>2.2008981557175003E-3</v>
+        <v>2.1334934199499999E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -11418,7 +14135,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>2.1371696067350003E-3</v>
+        <v>2.0927513270100001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -11439,7 +14156,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>2.0408065523574996E-3</v>
+        <v>2.0146709849300001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -11460,7 +14177,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>1.9934255543625E-3</v>
+        <v>1.9276519167800001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -11481,7 +14198,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>1.9229662490725002E-3</v>
+        <v>1.8810597786100001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -11502,7 +14219,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>1.8980685733975E-3</v>
+        <v>1.87663165253E-3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -11523,7 +14240,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>1.8370182299725E-3</v>
+        <v>1.79912813043E-3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -11544,7 +14261,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>1.767569128535E-3</v>
+        <v>1.6924865860800001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -11565,7 +14282,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>1.7786285180724998E-3</v>
+        <v>1.72638217851E-3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -11586,7 +14303,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>1.735934966105E-3</v>
+        <v>1.67969991069E-3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -11607,7 +14324,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>1.6736609397775E-3</v>
+        <v>1.6603348903100001E-3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -11628,7 +14345,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>1.6436711510049999E-3</v>
+        <v>1.6092090577100001E-3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -11649,7 +14366,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>1.66722543527E-3</v>
+        <v>1.6245404928000001E-3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -11670,7 +14387,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>1.5987540169049999E-3</v>
+        <v>1.57669338068E-3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -11691,7 +14408,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>1.5756924754450001E-3</v>
+        <v>1.5450480573100001E-3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -11712,7 +14429,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>1.580788272855E-3</v>
+        <v>1.55629476953E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -11733,7 +14450,7 @@
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>1.4839742282149999E-3</v>
+        <v>1.4639759731999999E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -11754,7 +14471,7 @@
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>1.4986174799499999E-3</v>
+        <v>1.4270001343399999E-3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -11775,7 +14492,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>1.4409436017324998E-3</v>
+        <v>1.3706330678E-3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -11796,7 +14513,7 @@
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>1.4824441325675E-3</v>
+        <v>1.42089384695E-3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -11817,7 +14534,7 @@
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>1.4036904382675002E-3</v>
+        <v>1.3345350886500001E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -11838,7 +14555,7 @@
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>1.3948099145949999E-3</v>
+        <v>1.36478152183E-3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -11859,7 +14576,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>1.376775348055E-3</v>
+        <v>1.3185272992500001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -11872,8 +14589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="109" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12799,4 +15516,2743 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F56"/>
+  <sheetViews>
+    <sheetView zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="6">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" t="s">
+        <v>288</v>
+      </c>
+      <c r="F12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" t="s">
+        <v>310</v>
+      </c>
+      <c r="F14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" t="s">
+        <v>311</v>
+      </c>
+      <c r="F15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E16" t="s">
+        <v>326</v>
+      </c>
+      <c r="F16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" t="s">
+        <v>280</v>
+      </c>
+      <c r="F17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" t="s">
+        <v>300</v>
+      </c>
+      <c r="F19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" t="s">
+        <v>308</v>
+      </c>
+      <c r="F20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" t="s">
+        <v>246</v>
+      </c>
+      <c r="F22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>251</v>
+      </c>
+      <c r="B25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>258</v>
+      </c>
+      <c r="B27" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>261</v>
+      </c>
+      <c r="B28" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>266</v>
+      </c>
+      <c r="B30" t="s">
+        <v>239</v>
+      </c>
+      <c r="C30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>270</v>
+      </c>
+      <c r="B31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>272</v>
+      </c>
+      <c r="B32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>289</v>
+      </c>
+      <c r="B33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C33" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>291</v>
+      </c>
+      <c r="B34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C34" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>301</v>
+      </c>
+      <c r="B35" t="s">
+        <v>271</v>
+      </c>
+      <c r="C35" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>303</v>
+      </c>
+      <c r="B36" t="s">
+        <v>273</v>
+      </c>
+      <c r="C36" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>314</v>
+      </c>
+      <c r="B37" t="s">
+        <v>274</v>
+      </c>
+      <c r="C37" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>317</v>
+      </c>
+      <c r="B38" t="s">
+        <v>276</v>
+      </c>
+      <c r="C38" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>322</v>
+      </c>
+      <c r="B39" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>330</v>
+      </c>
+      <c r="B40" t="s">
+        <v>279</v>
+      </c>
+      <c r="C40" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>281</v>
+      </c>
+      <c r="C41" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>282</v>
+      </c>
+      <c r="C42" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>284</v>
+      </c>
+      <c r="C44" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C45" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B194"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="44.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>261</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>263</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>270</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>272</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>289</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>291</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>301</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>303</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>314</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>317</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>322</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>330</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>188</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>190</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>195</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>207</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>210</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>212</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>213</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>220</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>223</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>225</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>226</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>231</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>237</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>239</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>247</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>249</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>268</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>269</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>271</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>273</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>274</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>276</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>278</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>279</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>281</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>282</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>283</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>284</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>286</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>290</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>292</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>293</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>294</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>295</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>299</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>302</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>313</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>315</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>327</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>328</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>141</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>146</v>
+      </c>
+      <c r="B97" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>151</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>152</v>
+      </c>
+      <c r="B99" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>161</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>166</v>
+      </c>
+      <c r="B101" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>167</v>
+      </c>
+      <c r="B102" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>182</v>
+      </c>
+      <c r="B103" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>185</v>
+      </c>
+      <c r="B104" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>194</v>
+      </c>
+      <c r="B105" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>201</v>
+      </c>
+      <c r="B106" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>218</v>
+      </c>
+      <c r="B108" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>222</v>
+      </c>
+      <c r="B109" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>224</v>
+      </c>
+      <c r="B110" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>228</v>
+      </c>
+      <c r="B111" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>232</v>
+      </c>
+      <c r="B112" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>235</v>
+      </c>
+      <c r="B113" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>241</v>
+      </c>
+      <c r="B114" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>246</v>
+      </c>
+      <c r="B115" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>252</v>
+      </c>
+      <c r="B116" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>253</v>
+      </c>
+      <c r="B117" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>254</v>
+      </c>
+      <c r="B118" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>255</v>
+      </c>
+      <c r="B119" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>256</v>
+      </c>
+      <c r="B120" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>265</v>
+      </c>
+      <c r="B121" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>275</v>
+      </c>
+      <c r="B122" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>277</v>
+      </c>
+      <c r="B123" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>287</v>
+      </c>
+      <c r="B124" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>296</v>
+      </c>
+      <c r="B125" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>297</v>
+      </c>
+      <c r="B126" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>306</v>
+      </c>
+      <c r="B127" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>307</v>
+      </c>
+      <c r="B128" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>309</v>
+      </c>
+      <c r="B129" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>312</v>
+      </c>
+      <c r="B130" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>316</v>
+      </c>
+      <c r="B131" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>318</v>
+      </c>
+      <c r="B132" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>319</v>
+      </c>
+      <c r="B133" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>320</v>
+      </c>
+      <c r="B134" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>325</v>
+      </c>
+      <c r="B135" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>329</v>
+      </c>
+      <c r="B136" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>331</v>
+      </c>
+      <c r="B137" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>332</v>
+      </c>
+      <c r="B138" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>147</v>
+      </c>
+      <c r="B142" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>157</v>
+      </c>
+      <c r="B145" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>168</v>
+      </c>
+      <c r="B146" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>174</v>
+      </c>
+      <c r="B147" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>181</v>
+      </c>
+      <c r="B148" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>183</v>
+      </c>
+      <c r="B149" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>196</v>
+      </c>
+      <c r="B150" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>217</v>
+      </c>
+      <c r="B151" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>230</v>
+      </c>
+      <c r="B152" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>250</v>
+      </c>
+      <c r="B153" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>280</v>
+      </c>
+      <c r="B154" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>285</v>
+      </c>
+      <c r="B155" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>300</v>
+      </c>
+      <c r="B156" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>308</v>
+      </c>
+      <c r="B157" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>165</v>
+      </c>
+      <c r="B158" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>171</v>
+      </c>
+      <c r="B159" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>172</v>
+      </c>
+      <c r="B160" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>176</v>
+      </c>
+      <c r="B161" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>187</v>
+      </c>
+      <c r="B162" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>193</v>
+      </c>
+      <c r="B163" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>208</v>
+      </c>
+      <c r="B164" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>209</v>
+      </c>
+      <c r="B165" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>245</v>
+      </c>
+      <c r="B166" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>262</v>
+      </c>
+      <c r="B167" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>288</v>
+      </c>
+      <c r="B168" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>298</v>
+      </c>
+      <c r="B169" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>310</v>
+      </c>
+      <c r="B170" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>311</v>
+      </c>
+      <c r="B171" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>326</v>
+      </c>
+      <c r="B172" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>148</v>
+      </c>
+      <c r="B173" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>155</v>
+      </c>
+      <c r="B174" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>169</v>
+      </c>
+      <c r="B175" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>186</v>
+      </c>
+      <c r="B176" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>198</v>
+      </c>
+      <c r="B177" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>199</v>
+      </c>
+      <c r="B178" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>203</v>
+      </c>
+      <c r="B179" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>214</v>
+      </c>
+      <c r="B180" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>219</v>
+      </c>
+      <c r="B181" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>221</v>
+      </c>
+      <c r="B182" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>236</v>
+      </c>
+      <c r="B183" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>238</v>
+      </c>
+      <c r="B184" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>244</v>
+      </c>
+      <c r="B185" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>259</v>
+      </c>
+      <c r="B186" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>260</v>
+      </c>
+      <c r="B187" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>264</v>
+      </c>
+      <c r="B188" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>267</v>
+      </c>
+      <c r="B189" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>304</v>
+      </c>
+      <c r="B190" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>305</v>
+      </c>
+      <c r="B191" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>321</v>
+      </c>
+      <c r="B192" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>323</v>
+      </c>
+      <c r="B193" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>324</v>
+      </c>
+      <c r="B194" s="1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>3.8202555999999999E-2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7.2160340000000003E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4.429545E-2</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2">
+        <f>(A2-$C2)</f>
+        <v>-6.0928940000000015E-3</v>
+      </c>
+      <c r="F2">
+        <f>(B2-$C2)</f>
+        <v>2.7864890000000003E-2</v>
+      </c>
+      <c r="G2">
+        <f>(C2-$C2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>5.1119967000000002E-2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.8235649999999999E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.036232E-2</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3">
+        <f t="shared" ref="E3:F17" si="0">(A3-$C3)</f>
+        <v>1.0757647000000002E-2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>-2.2126670000000001E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G17" si="1">(C3-$C3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>5.7166414999999998E-2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.7778250000000001E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4.4922730000000001E-2</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.2243684999999997E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-1.714448E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>5.5517384000000003E-2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9.2993989999999999E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7.1793529999999994E-2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>-1.6276145999999991E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>2.1200460000000004E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>8.5474783999999998E-2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6.8208640000000001E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9.3688640000000004E-2</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>-8.2138560000000055E-3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-2.5480000000000003E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0.11089734800000001</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.10904121999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.11663709999999999</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>-5.7397519999999869E-3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-7.5958799999999993E-3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>8.5887040999999997E-2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8.6039950000000004E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8.4643449999999995E-2</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.2435910000000022E-3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1.3965000000000088E-3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>5.2906416999999997E-2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.4702680000000001E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.5228130000000003E-2</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.7678286999999994E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-1.0525450000000002E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>4.4386423000000001E-2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.7481160000000001E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.1976160000000003E-2</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.2410262999999998E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-4.4950000000000025E-3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>5.3593514000000002E-2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8.1142829999999999E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6.964062E-2</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-1.6047105999999998E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1.1502209999999999E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>4.6172873000000003E-2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8.0091880000000004E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5.7233369999999999E-2</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>-1.1060496999999996E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>2.2858510000000005E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>7.5855434999999999E-2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6.7856890000000003E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7.6686420000000005E-2</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-8.309850000000063E-4</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>-8.8295300000000021E-3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>5.2631578999999998E-2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5.4334430000000003E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4.129617E-2</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1.1335408999999998E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.3038260000000003E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>4.8234161999999997E-2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7.4933799999999995E-2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5.6111439999999999E-2</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>-7.8772780000000014E-3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1.8822359999999996E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>5.0845128000000003E-2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6.8908609999999995E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5.1917129999999999E-2</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>-1.0720019999999955E-3</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1.6991479999999996E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>9.1108972999999996E-2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4.6089690000000003E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8.3567349999999999E-2</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>7.5416229999999973E-3</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>-3.7477659999999996E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>